--- a/Toeic_Voca.xlsx
+++ b/Toeic_Voca.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kengohirano/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88296CD0-4BE5-6B47-8DC9-9D902ABACEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3CC2D5-DB74-B243-A342-3F8C4A59B323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16520" xr2:uid="{ABC5CA81-94B5-6E40-B512-0CE227BB7790}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{ABC5CA81-94B5-6E40-B512-0CE227BB7790}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="214">
   <si>
     <t>단어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -354,27 +354,543 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sudden</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>갑작스러운</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>as of</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~부로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>semiconductor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반도체</t>
+    <t>attire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복장 , 옷차림새</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>규범 , 관례 ; 암호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~에 관하여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concerning (prep)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>involve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~에 영향을 미치다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>협약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concern + about / over</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~에 대한 우려 , 걱정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insurance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>observe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준수하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따르다 , 복종하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fulfill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(조건을)충족시키다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>urge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충고하다 , 권장하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>규정하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regulate (v)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예외적인 , 매우 뛰어난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exceptional (adj)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exceptionally (adv)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예외적으로 , 대단히</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>except (prep)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~을 제외하고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adhere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지키다 , 고수하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adherence (n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고수 , 충실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄격하게 심하게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>severely (adv)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>severe (adj)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가혹한 , 엄격한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sternly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄격하게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leniently</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관대하게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>punish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처벌하다 , 벌주다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refrain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자제하다 , 삼가다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refrain from</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~을 자제하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accessibility (n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접근(가능성)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">have access to </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~에 접근 권한을 가지고 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thoroughly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철저하게 , 완전히 , 대단히</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thorough</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철저한 , 완전한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>revision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정 , 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄격한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체포하다 , 체포 , 저지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suspect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용의자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obtain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얻다 , 존재하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>formation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>formal (adj)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공식적인 , 형식적인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공제되다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inspection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점검 , 검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하다 , 지휘하다 , 행동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrangement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준비 , 마련 , 주선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make arrangement to do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~할 준비하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make arrangement for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~의 준비를 하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">proceed </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나아가다 , 진행하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>procedural (adj)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절차상의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개요 , 요약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명령하다 , 지시하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mandate (v)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mandate (n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한 , 지시 , 명령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drastic (adj)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과감한 , 극단적인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>constant (adj)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지속적인 , 끊임없이 계속하는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>법령 , 결의서 , 행위 , 행동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act (n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act (v)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결정하다 , 판결을 내리다 , 행동하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상금 , 보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compensation for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~에 대한 보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compensate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상하다 , 보상금을 주다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obligation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의무 , 책임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allocation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한 , 당국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authority (n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forbid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금지하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abolish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폐지하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abolition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폐지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>congress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enforcement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시행 , 집행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>habitual (adj)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>습관적인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>convention</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관례 , 관습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legislation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>법률 , 법규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legislator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입법자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legislate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>법률을 제정하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restrict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한정하다 , 제한하다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -744,8 +1260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA2F691-9921-8041-964E-D3C0C431405F}">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:F12"/>
+    <sheetView tabSelected="1" topLeftCell="B56" zoomScale="210" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70:H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -828,11 +1344,11 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -845,9 +1361,13 @@
         <v>10</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8">
@@ -859,9 +1379,13 @@
         <v>12</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
@@ -873,9 +1397,13 @@
         <v>14</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8">
@@ -887,9 +1415,13 @@
         <v>16</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8">
@@ -901,9 +1433,13 @@
         <v>18</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8">
@@ -915,9 +1451,13 @@
         <v>20</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8">
@@ -929,9 +1469,13 @@
         <v>22</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8">
@@ -943,9 +1487,13 @@
         <v>24</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8">
@@ -957,9 +1505,13 @@
         <v>26</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8">
@@ -971,9 +1523,13 @@
         <v>28</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8">
@@ -985,9 +1541,13 @@
         <v>30</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8">
@@ -999,9 +1559,13 @@
         <v>32</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8">
@@ -1013,9 +1577,13 @@
         <v>34</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8">
@@ -1027,9 +1595,13 @@
         <v>36</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8">
@@ -1041,9 +1613,13 @@
         <v>34</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8">
@@ -1055,9 +1631,13 @@
         <v>39</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8">
@@ -1069,9 +1649,13 @@
         <v>41</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8">
@@ -1083,9 +1667,13 @@
         <v>43</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8">
@@ -1097,9 +1685,13 @@
         <v>45</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8">
@@ -1111,9 +1703,13 @@
         <v>47</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8">
@@ -1125,9 +1721,13 @@
         <v>49</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8">
@@ -1139,9 +1739,13 @@
         <v>51</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8">
@@ -1153,9 +1757,13 @@
         <v>53</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8">
@@ -1167,9 +1775,13 @@
         <v>55</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8">
@@ -1181,9 +1793,13 @@
         <v>57</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8">
@@ -1195,9 +1811,13 @@
         <v>59</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8">
@@ -1209,9 +1829,13 @@
         <v>61</v>
       </c>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8">
@@ -1223,9 +1847,13 @@
         <v>63</v>
       </c>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8">
@@ -1237,9 +1865,13 @@
         <v>65</v>
       </c>
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8">
@@ -1251,9 +1883,13 @@
         <v>67</v>
       </c>
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8">
@@ -1265,9 +1901,13 @@
         <v>68</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8">
@@ -1279,9 +1919,13 @@
         <v>71</v>
       </c>
       <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8">
@@ -1293,9 +1937,13 @@
         <v>73</v>
       </c>
       <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8">
@@ -1307,9 +1955,13 @@
         <v>75</v>
       </c>
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8">
@@ -1321,9 +1973,13 @@
         <v>77</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8">
@@ -1331,236 +1987,476 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
+      <c r="E41" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
+      <c r="E45" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
+      <c r="E46" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
+      <c r="E47" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:8">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:8">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:8">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:8">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:8">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:8">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:8">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:8">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:8">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1687,72 +2583,246 @@
       <c r="D100" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="278">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
+  <mergeCells count="338">
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
     <mergeCell ref="A100:B100"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -1777,195 +2847,81 @@
     <mergeCell ref="A83:B83"/>
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Toeic_Voca.xlsx
+++ b/Toeic_Voca.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kengohirano/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kengohirano/Desktop/Voca/vocabulary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3CC2D5-DB74-B243-A342-3F8C4A59B323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F35E99E-356E-5246-9303-C0F6AAFE56A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{ABC5CA81-94B5-6E40-B512-0CE227BB7790}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="219">
   <si>
     <t>단어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -891,6 +891,26 @@
   </si>
   <si>
     <t>한정하다 , 제한하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAY 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accustomed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>익숙한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be accustomed to - ing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~하는 데 익숙하다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1258,15 +1278,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA2F691-9921-8041-964E-D3C0C431405F}">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B56" zoomScale="210" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70:H70"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1279,8 +1299,14 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1297,8 +1323,16 @@
         <v>1</v>
       </c>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1315,8 +1349,16 @@
         <v>80</v>
       </c>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1333,8 +1375,16 @@
         <v>82</v>
       </c>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1351,8 +1401,12 @@
         <v>83</v>
       </c>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1369,8 +1423,12 @@
         <v>86</v>
       </c>
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1387,8 +1445,12 @@
         <v>88</v>
       </c>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1405,8 +1467,12 @@
         <v>90</v>
       </c>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1423,8 +1489,12 @@
         <v>92</v>
       </c>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1441,8 +1511,12 @@
         <v>94</v>
       </c>
       <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1459,8 +1533,12 @@
         <v>96</v>
       </c>
       <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -1477,8 +1555,12 @@
         <v>98</v>
       </c>
       <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1495,8 +1577,12 @@
         <v>100</v>
       </c>
       <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -1513,8 +1599,12 @@
         <v>101</v>
       </c>
       <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -1531,8 +1621,12 @@
         <v>103</v>
       </c>
       <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -1549,8 +1643,12 @@
         <v>106</v>
       </c>
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -1567,8 +1665,12 @@
         <v>108</v>
       </c>
       <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -1585,8 +1687,12 @@
         <v>110</v>
       </c>
       <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -1603,8 +1709,12 @@
         <v>112</v>
       </c>
       <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -1621,8 +1731,12 @@
         <v>113</v>
       </c>
       <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -1639,8 +1753,12 @@
         <v>116</v>
       </c>
       <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -1657,8 +1775,12 @@
         <v>118</v>
       </c>
       <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -1675,8 +1797,12 @@
         <v>120</v>
       </c>
       <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
@@ -1693,8 +1819,12 @@
         <v>122</v>
       </c>
       <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
@@ -1711,8 +1841,12 @@
         <v>124</v>
       </c>
       <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
@@ -1729,8 +1863,12 @@
         <v>126</v>
       </c>
       <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
@@ -1747,8 +1885,12 @@
         <v>128</v>
       </c>
       <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
@@ -1765,8 +1907,12 @@
         <v>130</v>
       </c>
       <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
@@ -1783,8 +1929,12 @@
         <v>132</v>
       </c>
       <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
@@ -1801,8 +1951,12 @@
         <v>134</v>
       </c>
       <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
@@ -1819,8 +1973,12 @@
         <v>136</v>
       </c>
       <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -1837,8 +1995,12 @@
         <v>138</v>
       </c>
       <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
         <v>62</v>
       </c>
@@ -1855,8 +2017,12 @@
         <v>140</v>
       </c>
       <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
         <v>64</v>
       </c>
@@ -1873,8 +2039,12 @@
         <v>142</v>
       </c>
       <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
@@ -1891,8 +2061,12 @@
         <v>144</v>
       </c>
       <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
         <v>69</v>
       </c>
@@ -1909,8 +2083,12 @@
         <v>146</v>
       </c>
       <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
         <v>70</v>
       </c>
@@ -1927,8 +2105,12 @@
         <v>148</v>
       </c>
       <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
         <v>72</v>
       </c>
@@ -1945,8 +2127,12 @@
         <v>150</v>
       </c>
       <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
         <v>74</v>
       </c>
@@ -1963,8 +2149,12 @@
         <v>152</v>
       </c>
       <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
@@ -1981,8 +2171,12 @@
         <v>154</v>
       </c>
       <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1995,8 +2189,12 @@
         <v>156</v>
       </c>
       <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2009,8 +2207,12 @@
         <v>158</v>
       </c>
       <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2023,8 +2225,12 @@
         <v>160</v>
       </c>
       <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2037,8 +2243,12 @@
         <v>162</v>
       </c>
       <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2051,8 +2261,12 @@
         <v>164</v>
       </c>
       <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2065,8 +2279,12 @@
         <v>166</v>
       </c>
       <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2079,8 +2297,12 @@
         <v>167</v>
       </c>
       <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2093,8 +2315,12 @@
         <v>170</v>
       </c>
       <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2107,8 +2333,12 @@
         <v>172</v>
       </c>
       <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2121,8 +2351,12 @@
         <v>174</v>
       </c>
       <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2135,8 +2369,12 @@
         <v>176</v>
       </c>
       <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2149,8 +2387,12 @@
         <v>177</v>
       </c>
       <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2163,8 +2405,12 @@
         <v>180</v>
       </c>
       <c r="H53" s="1"/>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2177,8 +2423,12 @@
         <v>181</v>
       </c>
       <c r="H54" s="1"/>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2191,8 +2441,12 @@
         <v>183</v>
       </c>
       <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2205,8 +2459,12 @@
         <v>185</v>
       </c>
       <c r="H56" s="1"/>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2219,8 +2477,12 @@
         <v>187</v>
       </c>
       <c r="H57" s="1"/>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2233,8 +2495,12 @@
         <v>189</v>
       </c>
       <c r="H58" s="1"/>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2247,8 +2513,12 @@
         <v>190</v>
       </c>
       <c r="H59" s="1"/>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2261,8 +2531,12 @@
         <v>193</v>
       </c>
       <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2275,8 +2549,12 @@
         <v>195</v>
       </c>
       <c r="H61" s="1"/>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2289,8 +2567,12 @@
         <v>197</v>
       </c>
       <c r="H62" s="1"/>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2303,8 +2585,12 @@
         <v>199</v>
       </c>
       <c r="H63" s="1"/>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2317,8 +2603,12 @@
         <v>201</v>
       </c>
       <c r="H64" s="1"/>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2331,8 +2621,12 @@
         <v>203</v>
       </c>
       <c r="H65" s="1"/>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2345,8 +2639,12 @@
         <v>205</v>
       </c>
       <c r="H66" s="1"/>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2359,8 +2657,12 @@
         <v>207</v>
       </c>
       <c r="H67" s="1"/>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2373,8 +2675,12 @@
         <v>209</v>
       </c>
       <c r="H68" s="1"/>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2387,8 +2693,12 @@
         <v>211</v>
       </c>
       <c r="H69" s="1"/>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2401,62 +2711,66 @@
         <v>213</v>
       </c>
       <c r="H70" s="1"/>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:12">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:12">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:12">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:12">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:12">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:12">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:12">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:12">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:12">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2583,16 +2897,451 @@
       <c r="D100" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="338">
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="G70:H70"/>
+  <mergeCells count="477">
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
     <mergeCell ref="E68:F68"/>
     <mergeCell ref="E69:F69"/>
     <mergeCell ref="E70:F70"/>
@@ -2617,311 +3366,15 @@
     <mergeCell ref="G59:H59"/>
     <mergeCell ref="G60:H60"/>
     <mergeCell ref="G61:H61"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="G70:H70"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
